--- a/medicine/Premiers secours et secourisme/Échelle_NACA/Échelle_NACA.xlsx
+++ b/medicine/Premiers secours et secourisme/Échelle_NACA/Échelle_NACA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_NACA</t>
+          <t>Échelle_NACA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de l’aide médicale urgente, l'échelle NACA — ou score NACA — est une échelle d’appréciation pré-hospitalière de la gravité des atteintes médicales ou chirurgicales qui utilise les chiffres 0 (indemne) à VII (décès) afin de quantifier la sévérité de la pathologie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_NACA</t>
+          <t>Échelle_NACA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique et utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été introduite aux États-Unis d'Amérique initialement pour la description des victimes d’accidents d’avion par le National Advisory Committee for Aeronautics (d’où son nom), et est désormais utilisée internationalement.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_NACA</t>
+          <t>Échelle_NACA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
